--- a/data/trans_orig/P2C_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5986FF90-91F1-4991-8067-4667AD728F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22A11039-55C9-46D3-A757-2913A5A548A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6F534081-84DA-440A-89F3-29E036ED0A34}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1DE8F3E7-8B78-4CAE-A4BC-B259B8272B8A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="439">
   <si>
     <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>13,61%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
   </si>
   <si>
     <t>24,95%</t>
   </si>
   <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
   </si>
   <si>
     <t>19,22%</t>
   </si>
   <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>86,39%</t>
   </si>
   <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
   </si>
   <si>
     <t>75,05%</t>
   </si>
   <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
   </si>
   <si>
     <t>80,78%</t>
   </si>
   <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>21,47%</t>
   </si>
   <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
   </si>
   <si>
     <t>33,65%</t>
   </si>
   <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
   </si>
   <si>
     <t>27,54%</t>
   </si>
   <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
   </si>
   <si>
     <t>78,53%</t>
   </si>
   <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
   </si>
   <si>
     <t>66,35%</t>
   </si>
   <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
   </si>
   <si>
     <t>72,46%</t>
   </si>
   <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -197,646 +197,652 @@
     <t>21,9%</t>
   </si>
   <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
     <t>19,2%</t>
   </si>
   <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
   </si>
   <si>
     <t>80,8%</t>
   </si>
   <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
   </si>
   <si>
     <t>31,7%</t>
   </si>
   <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
   </si>
   <si>
     <t>68,3%</t>
   </si>
   <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
+    <t>76,48%</t>
   </si>
   <si>
     <t>69,99%</t>
   </si>
   <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
   </si>
   <si>
     <t>71,44%</t>
   </si>
   <si>
-    <t>68,81%</t>
+    <t>68,57%</t>
   </si>
   <si>
     <t>24,86%</t>
   </si>
   <si>
-    <t>22,28%</t>
+    <t>22,19%</t>
   </si>
   <si>
     <t>27,84%</t>
@@ -845,19 +851,19 @@
     <t>36,78%</t>
   </si>
   <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
   </si>
   <si>
     <t>30,88%</t>
   </si>
   <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
   </si>
   <si>
     <t>75,14%</t>
@@ -866,175 +872,163 @@
     <t>72,16%</t>
   </si>
   <si>
-    <t>77,72%</t>
+    <t>77,81%</t>
   </si>
   <si>
     <t>63,22%</t>
   </si>
   <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
   </si>
   <si>
     <t>69,12%</t>
   </si>
   <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
   </si>
   <si>
     <t>23,86%</t>
   </si>
   <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
   </si>
   <si>
     <t>35,13%</t>
   </si>
   <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
   </si>
   <si>
     <t>29,59%</t>
   </si>
   <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
   </si>
   <si>
     <t>76,14%</t>
   </si>
   <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
   </si>
   <si>
     <t>64,87%</t>
   </si>
   <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
   </si>
   <si>
     <t>70,41%</t>
   </si>
   <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
   </si>
   <si>
     <t>21,29%</t>
   </si>
   <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
   </si>
   <si>
     <t>30,11%</t>
   </si>
   <si>
-    <t>33,36%</t>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
   </si>
   <si>
     <t>25,94%</t>
   </si>
   <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
   </si>
   <si>
     <t>78,71%</t>
   </si>
   <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
   </si>
   <si>
     <t>69,89%</t>
   </si>
   <si>
-    <t>66,64%</t>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
   </si>
   <si>
     <t>74,06%</t>
   </si>
   <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
   </si>
   <si>
     <t>23,82%</t>
   </si>
   <si>
-    <t>22,37%</t>
-  </si>
-  <si>
     <t>33,25%</t>
   </si>
   <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
   </si>
   <si>
     <t>76,18%</t>
   </si>
   <si>
-    <t>77,63%</t>
-  </si>
-  <si>
     <t>66,75%</t>
   </si>
   <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
   </si>
   <si>
     <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1043,307 +1037,325 @@
     <t>6,92%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
   </si>
   <si>
     <t>12,88%</t>
   </si>
   <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
   </si>
   <si>
     <t>10,27%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
   </si>
   <si>
     <t>93,08%</t>
   </si>
   <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
   </si>
   <si>
     <t>87,12%</t>
   </si>
   <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
   </si>
   <si>
     <t>89,73%</t>
   </si>
   <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
   </si>
   <si>
     <t>14,96%</t>
   </si>
   <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
   </si>
   <si>
     <t>17,79%</t>
   </si>
   <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
   </si>
   <si>
     <t>16,46%</t>
   </si>
   <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
   </si>
   <si>
     <t>85,04%</t>
   </si>
   <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
   </si>
   <si>
     <t>82,21%</t>
   </si>
   <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
   </si>
   <si>
     <t>83,54%</t>
   </si>
   <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
   </si>
   <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
   </si>
   <si>
     <t>23,72%</t>
   </si>
   <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
   </si>
   <si>
     <t>19,61%</t>
   </si>
   <si>
-    <t>17,53%</t>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
   </si>
   <si>
     <t>84,58%</t>
   </si>
   <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
   </si>
   <si>
     <t>76,28%</t>
   </si>
   <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
   </si>
   <si>
     <t>80,39%</t>
   </si>
   <si>
-    <t>82,47%</t>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
   </si>
   <si>
     <t>12,67%</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
   </si>
   <si>
     <t>27,59%</t>
   </si>
   <si>
-    <t>52,59%</t>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
   </si>
   <si>
     <t>20,81%</t>
   </si>
   <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
   </si>
   <si>
     <t>87,33%</t>
   </si>
   <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
   </si>
   <si>
     <t>72,41%</t>
   </si>
   <si>
-    <t>47,41%</t>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
   </si>
   <si>
     <t>79,19%</t>
   </si>
   <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
   </si>
   <si>
     <t>11,75%</t>
   </si>
   <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
   </si>
   <si>
     <t>14,14%</t>
   </si>
   <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
   </si>
   <si>
     <t>13,05%</t>
   </si>
   <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
   </si>
   <si>
     <t>88,25%</t>
   </si>
   <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
   </si>
   <si>
     <t>85,86%</t>
   </si>
   <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
   </si>
   <si>
     <t>86,95%</t>
   </si>
   <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
   </si>
   <si>
     <t>13,45%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
   </si>
   <si>
     <t>20,4%</t>
   </si>
   <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
   </si>
   <si>
     <t>17,14%</t>
   </si>
   <si>
-    <t>15,54%</t>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
   </si>
   <si>
     <t>86,55%</t>
   </si>
   <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
   </si>
   <si>
     <t>79,6%</t>
   </si>
   <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
   </si>
   <si>
     <t>82,86%</t>
   </si>
   <si>
-    <t>84,46%</t>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5006E9-7E05-45BB-9BFB-112406D81EFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65198FCA-3112-44FF-B625-3B16566E24FB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2732,7 +2744,7 @@
         <v>4889</v>
       </c>
       <c r="N20" s="7">
-        <v>4968863</v>
+        <v>4968864</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>122</v>
@@ -2783,7 +2795,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2818,7 +2830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DD32B8-45DF-467B-B125-160A5A04F93C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCD90FF-5922-4704-8C13-0FCD8E523F02}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3130,10 +3142,10 @@
         <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3160,13 @@
         <v>415156</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>312</v>
@@ -3163,13 +3175,13 @@
         <v>333315</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>704</v>
@@ -3178,13 +3190,13 @@
         <v>748472</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3264,13 @@
         <v>311130</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>417</v>
@@ -3267,13 +3279,13 @@
         <v>460866</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>707</v>
@@ -3282,13 +3294,13 @@
         <v>771996</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3315,13 @@
         <v>706817</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>523</v>
@@ -3318,13 +3330,13 @@
         <v>571318</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>1169</v>
@@ -3333,13 +3345,13 @@
         <v>1278135</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,13 +3419,13 @@
         <v>222791</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>325</v>
@@ -3422,13 +3434,13 @@
         <v>354661</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>531</v>
@@ -3437,13 +3449,13 @@
         <v>577452</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3470,13 @@
         <v>534832</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H14" s="7">
         <v>380</v>
@@ -3473,13 +3485,13 @@
         <v>422513</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M14" s="7">
         <v>863</v>
@@ -3488,13 +3500,13 @@
         <v>957345</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,13 +3729,13 @@
         <v>1002198</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>59</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>1416</v>
@@ -3732,13 +3744,13 @@
         <v>1526936</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>2363</v>
@@ -3747,10 +3759,10 @@
         <v>2529134</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>221</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>222</v>
@@ -3768,13 +3780,13 @@
         <v>2424581</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>67</v>
+        <v>223</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H20" s="7">
         <v>1882</v>
@@ -3783,13 +3795,13 @@
         <v>2031373</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M20" s="7">
         <v>4144</v>
@@ -3798,13 +3810,13 @@
         <v>4455954</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,7 +3893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DAEC9C-92D3-4D5D-8599-480CB98FF210}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20246A8-9060-4506-83B8-A2C93F99642A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4005,13 +4017,13 @@
         <v>22381</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>52</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -4020,13 +4032,13 @@
         <v>36831</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -4035,13 +4047,13 @@
         <v>59213</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4068,13 @@
         <v>94165</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>62</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>77</v>
@@ -4071,13 +4083,13 @@
         <v>76529</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>168</v>
@@ -4086,13 +4098,13 @@
         <v>170693</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4172,13 @@
         <v>151276</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>170</v>
@@ -4175,13 +4187,13 @@
         <v>167917</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>311</v>
@@ -4190,13 +4202,13 @@
         <v>319192</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4223,13 @@
         <v>406978</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>381</v>
@@ -4226,13 +4238,13 @@
         <v>391562</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>779</v>
@@ -4241,13 +4253,13 @@
         <v>798541</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4327,13 @@
         <v>254160</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>373</v>
@@ -4330,13 +4342,13 @@
         <v>383625</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>608</v>
@@ -4345,13 +4357,13 @@
         <v>637784</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4378,13 @@
         <v>768271</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H11" s="7">
         <v>604</v>
@@ -4381,13 +4393,13 @@
         <v>659288</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>1320</v>
@@ -4396,13 +4408,13 @@
         <v>1427560</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,13 +4482,13 @@
         <v>181202</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H13" s="7">
         <v>268</v>
@@ -4485,13 +4497,13 @@
         <v>275798</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>437</v>
@@ -4500,13 +4512,13 @@
         <v>457000</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4533,13 @@
         <v>578350</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>468</v>
@@ -4536,13 +4548,13 @@
         <v>509213</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M14" s="7">
         <v>995</v>
@@ -4551,13 +4563,13 @@
         <v>1087563</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,13 +4637,13 @@
         <v>199649</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H16" s="7">
         <v>300</v>
@@ -4640,13 +4652,13 @@
         <v>314314</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M16" s="7">
         <v>497</v>
@@ -4655,13 +4667,13 @@
         <v>513963</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4688,13 @@
         <v>737918</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H17" s="7">
         <v>659</v>
@@ -4691,13 +4703,13 @@
         <v>729465</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>240</v>
+        <v>316</v>
       </c>
       <c r="M17" s="7">
         <v>1394</v>
@@ -4706,13 +4718,13 @@
         <v>1467383</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,13 +4792,13 @@
         <v>808668</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>198</v>
+        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>1149</v>
@@ -4795,13 +4807,13 @@
         <v>1178484</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>319</v>
+        <v>204</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M19" s="7">
         <v>1913</v>
@@ -4810,13 +4822,13 @@
         <v>1987152</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>321</v>
+        <v>134</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4843,13 @@
         <v>2585682</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>208</v>
+        <v>103</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>325</v>
+        <v>87</v>
       </c>
       <c r="H20" s="7">
         <v>2189</v>
@@ -4852,7 +4864,7 @@
         <v>327</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>328</v>
+        <v>214</v>
       </c>
       <c r="M20" s="7">
         <v>4656</v>
@@ -4861,13 +4873,13 @@
         <v>4951740</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,7 +4956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE50128C-5321-465A-8BD0-3C9940A6E6F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651D9253-5CE7-4B6E-9E92-20FCBEF29921}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4961,7 +4973,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5068,13 +5080,13 @@
         <v>7062</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>34</v>
@@ -5083,13 +5095,13 @@
         <v>16843</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>43</v>
@@ -5098,13 +5110,13 @@
         <v>23905</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5131,13 @@
         <v>94920</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>209</v>
@@ -5134,13 +5146,13 @@
         <v>113890</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>318</v>
@@ -5149,13 +5161,13 @@
         <v>208810</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5235,13 @@
         <v>82269</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H7" s="7">
         <v>178</v>
@@ -5238,13 +5250,13 @@
         <v>110291</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M7" s="7">
         <v>269</v>
@@ -5253,13 +5265,13 @@
         <v>192560</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5286,13 @@
         <v>467554</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>820</v>
@@ -5289,13 +5301,13 @@
         <v>509676</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>1341</v>
@@ -5304,13 +5316,13 @@
         <v>977230</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5390,13 @@
         <v>160272</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H10" s="7">
         <v>349</v>
@@ -5393,13 +5405,13 @@
         <v>251455</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M10" s="7">
         <v>513</v>
@@ -5408,13 +5420,13 @@
         <v>411727</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5441,13 @@
         <v>878976</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H11" s="7">
         <v>1168</v>
@@ -5444,13 +5456,13 @@
         <v>808624</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M11" s="7">
         <v>1968</v>
@@ -5459,10 +5471,10 @@
         <v>1687600</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>384</v>
@@ -5551,10 +5563,10 @@
         <v>388</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>389</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M13" s="7">
         <v>258</v>
@@ -5563,13 +5575,13 @@
         <v>333643</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5596,13 @@
         <v>636410</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H14" s="7">
         <v>873</v>
@@ -5599,13 +5611,13 @@
         <v>633090</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>399</v>
       </c>
       <c r="M14" s="7">
         <v>1465</v>
@@ -5614,13 +5626,13 @@
         <v>1269499</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,13 +5700,13 @@
         <v>113446</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H16" s="7">
         <v>233</v>
@@ -5703,13 +5715,13 @@
         <v>162681</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M16" s="7">
         <v>361</v>
@@ -5718,13 +5730,13 @@
         <v>276127</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5751,13 @@
         <v>851957</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H17" s="7">
         <v>1329</v>
@@ -5754,13 +5766,13 @@
         <v>987751</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M17" s="7">
         <v>2207</v>
@@ -5769,13 +5781,13 @@
         <v>1839708</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,13 +5855,13 @@
         <v>455411</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H19" s="7">
         <v>968</v>
@@ -5858,13 +5870,13 @@
         <v>782550</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M19" s="7">
         <v>1444</v>
@@ -5873,13 +5885,13 @@
         <v>1237961</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5906,13 @@
         <v>2929817</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="H20" s="7">
         <v>4399</v>
@@ -5909,28 +5921,28 @@
         <v>3053031</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="M20" s="7">
         <v>7299</v>
       </c>
       <c r="N20" s="7">
-        <v>5982848</v>
+        <v>5982847</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>437</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,7 +5984,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P2C_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22A11039-55C9-46D3-A757-2913A5A548A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF2EB336-87EA-48A7-BABE-2375B91994E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1DE8F3E7-8B78-4CAE-A4BC-B259B8272B8A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{934D790B-D93E-4114-8805-DF097BA8E494}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="441">
   <si>
     <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,28 +77,28 @@
     <t>13,61%</t>
   </si>
   <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
   </si>
   <si>
     <t>24,95%</t>
   </si>
   <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
   </si>
   <si>
     <t>19,22%</t>
   </si>
   <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,40 +107,40 @@
     <t>86,39%</t>
   </si>
   <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
   </si>
   <si>
     <t>75,05%</t>
   </si>
   <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
   </si>
   <si>
     <t>80,78%</t>
   </si>
   <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>21,47%</t>
   </si>
   <si>
-    <t>18,42%</t>
+    <t>18,44%</t>
   </si>
   <si>
     <t>24,89%</t>
@@ -149,19 +149,19 @@
     <t>33,65%</t>
   </si>
   <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
   </si>
   <si>
     <t>27,54%</t>
   </si>
   <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
   </si>
   <si>
     <t>78,53%</t>
@@ -170,139 +170,133 @@
     <t>75,11%</t>
   </si>
   <si>
-    <t>81,58%</t>
+    <t>81,56%</t>
   </si>
   <si>
     <t>66,35%</t>
   </si>
   <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
   </si>
   <si>
     <t>72,46%</t>
   </si>
   <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>21,9%</t>
   </si>
   <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
   </si>
   <si>
     <t>32,26%</t>
   </si>
   <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
   </si>
   <si>
     <t>27,09%</t>
   </si>
   <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
+    <t>29,32%</t>
   </si>
   <si>
     <t>78,1%</t>
   </si>
   <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
   </si>
   <si>
     <t>67,74%</t>
   </si>
   <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
   </si>
   <si>
     <t>72,91%</t>
   </si>
   <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>19,62%</t>
   </si>
   <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
   </si>
   <si>
     <t>29,38%</t>
   </si>
   <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
   </si>
   <si>
     <t>24,52%</t>
   </si>
   <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
   </si>
   <si>
     <t>80,38%</t>
   </si>
   <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
   </si>
   <si>
     <t>70,62%</t>
   </si>
   <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
   </si>
   <si>
     <t>75,48%</t>
   </si>
   <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -311,724 +305,736 @@
     <t>18,83%</t>
   </si>
   <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
   </si>
   <si>
     <t>27,99%</t>
   </si>
   <si>
-    <t>25,43%</t>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
   </si>
   <si>
     <t>30,87%</t>
   </si>
   <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
   </si>
   <si>
     <t>69,13%</t>
   </si>
   <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
   </si>
   <si>
     <t>28,64%</t>
   </si>
   <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
   </si>
   <si>
     <t>71,36%</t>
   </si>
   <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
   </si>
   <si>
     <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1767,7 +1773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65198FCA-3112-44FF-B625-3B16566E24FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E6CA80-3890-4665-90D9-FA05F597E79E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2234,10 +2240,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2252,13 +2258,13 @@
         <v>751200</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>616</v>
@@ -2267,13 +2273,13 @@
         <v>656028</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1320</v>
@@ -2282,13 +2288,13 @@
         <v>1407228</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2344,7 +2350,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2356,13 +2362,13 @@
         <v>133115</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>198</v>
@@ -2371,13 +2377,13 @@
         <v>200932</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>324</v>
@@ -2386,13 +2392,13 @@
         <v>334047</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,13 +2413,13 @@
         <v>545394</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>498</v>
@@ -2422,13 +2428,13 @@
         <v>482909</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1013</v>
@@ -2437,13 +2443,13 @@
         <v>1028303</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,7 +2505,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2511,13 +2517,13 @@
         <v>177414</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>279</v>
@@ -2526,13 +2532,13 @@
         <v>290722</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>462</v>
@@ -2541,13 +2547,13 @@
         <v>468136</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2562,13 +2568,13 @@
         <v>764808</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>718</v>
@@ -2577,13 +2583,13 @@
         <v>747890</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1529</v>
@@ -2592,13 +2598,13 @@
         <v>1512698</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,13 +2672,13 @@
         <v>661067</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>985</v>
@@ -2681,13 +2687,13 @@
         <v>1025811</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>1622</v>
@@ -2696,13 +2702,13 @@
         <v>1686877</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,16 +2720,16 @@
         <v>2577</v>
       </c>
       <c r="D20" s="7">
-        <v>2615477</v>
+        <v>2615476</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>2312</v>
@@ -2732,13 +2738,13 @@
         <v>2353387</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>4889</v>
@@ -2747,13 +2753,13 @@
         <v>4968864</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,7 +2771,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2809,7 +2815,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2830,7 +2836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCD90FF-5922-4704-8C13-0FCD8E523F02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4C9F36-D7A0-4D75-8072-6263138B0B65}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2847,7 +2853,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2954,13 +2960,13 @@
         <v>31100</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -2969,13 +2975,13 @@
         <v>48616</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>75</v>
@@ -2984,13 +2990,13 @@
         <v>79716</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +3011,13 @@
         <v>84665</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>58</v>
@@ -3020,13 +3026,13 @@
         <v>63289</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>146</v>
@@ -3035,13 +3041,13 @@
         <v>147954</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3115,13 @@
         <v>172548</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7">
         <v>239</v>
@@ -3124,13 +3130,13 @@
         <v>251830</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M7" s="7">
         <v>399</v>
@@ -3139,13 +3145,13 @@
         <v>424377</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3166,13 @@
         <v>415156</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="H8" s="7">
         <v>312</v>
@@ -3175,13 +3181,13 @@
         <v>333315</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>704</v>
@@ -3190,13 +3196,13 @@
         <v>748472</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3270,13 @@
         <v>311130</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>417</v>
@@ -3279,13 +3285,13 @@
         <v>460866</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>707</v>
@@ -3294,13 +3300,13 @@
         <v>771996</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3321,13 @@
         <v>706817</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H11" s="7">
         <v>523</v>
@@ -3330,13 +3336,13 @@
         <v>571318</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>1169</v>
@@ -3345,13 +3351,13 @@
         <v>1278135</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,7 +3413,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3419,13 +3425,13 @@
         <v>222791</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>325</v>
@@ -3434,13 +3440,13 @@
         <v>354661</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>531</v>
@@ -3449,13 +3455,13 @@
         <v>577452</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3476,13 @@
         <v>534832</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>380</v>
@@ -3485,13 +3491,13 @@
         <v>422513</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>863</v>
@@ -3500,13 +3506,13 @@
         <v>957345</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>142</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,7 +3568,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3574,13 +3580,13 @@
         <v>264630</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>394</v>
@@ -3589,13 +3595,13 @@
         <v>410963</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>651</v>
@@ -3604,13 +3610,13 @@
         <v>675593</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3631,13 @@
         <v>683109</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>609</v>
@@ -3640,13 +3646,13 @@
         <v>640938</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>1262</v>
@@ -3655,13 +3661,13 @@
         <v>1324047</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3735,13 @@
         <v>1002198</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>1416</v>
@@ -3744,13 +3750,13 @@
         <v>1526936</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M19" s="7">
         <v>2363</v>
@@ -3759,13 +3765,13 @@
         <v>2529134</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3786,13 @@
         <v>2424581</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H20" s="7">
         <v>1882</v>
@@ -3795,13 +3801,13 @@
         <v>2031373</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>4144</v>
@@ -3810,13 +3816,13 @@
         <v>4455954</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,7 +3878,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3893,7 +3899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20246A8-9060-4506-83B8-A2C93F99642A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DE3623-CDD9-48A9-B387-CEDEEC77FBB7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3910,7 +3916,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4017,13 +4023,13 @@
         <v>22381</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>123</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -4032,13 +4038,13 @@
         <v>36831</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>53</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -4047,13 +4053,13 @@
         <v>59213</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,13 +4074,13 @@
         <v>94165</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>77</v>
@@ -4083,13 +4089,13 @@
         <v>76529</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>60</v>
       </c>
       <c r="M5" s="7">
         <v>168</v>
@@ -4098,13 +4104,13 @@
         <v>170693</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,13 +4178,13 @@
         <v>151276</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H7" s="7">
         <v>170</v>
@@ -4187,13 +4193,13 @@
         <v>167917</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M7" s="7">
         <v>311</v>
@@ -4202,13 +4208,13 @@
         <v>319192</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4229,13 @@
         <v>406978</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H8" s="7">
         <v>381</v>
@@ -4238,13 +4244,13 @@
         <v>391562</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>779</v>
@@ -4253,13 +4259,13 @@
         <v>798541</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4333,13 @@
         <v>254160</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H10" s="7">
         <v>373</v>
@@ -4342,13 +4348,13 @@
         <v>383625</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>608</v>
@@ -4357,13 +4363,13 @@
         <v>637784</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4384,13 @@
         <v>768271</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H11" s="7">
         <v>604</v>
@@ -4393,13 +4399,13 @@
         <v>659288</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M11" s="7">
         <v>1320</v>
@@ -4408,13 +4414,13 @@
         <v>1427560</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,7 +4476,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4482,13 +4488,13 @@
         <v>181202</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>268</v>
@@ -4497,13 +4503,13 @@
         <v>275798</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>437</v>
@@ -4512,13 +4518,13 @@
         <v>457000</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4539,13 @@
         <v>578350</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>468</v>
@@ -4548,13 +4554,13 @@
         <v>509213</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>995</v>
@@ -4563,13 +4569,13 @@
         <v>1087563</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,7 +4631,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4637,13 +4643,13 @@
         <v>199649</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H16" s="7">
         <v>300</v>
@@ -4652,13 +4658,13 @@
         <v>314314</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M16" s="7">
         <v>497</v>
@@ -4667,13 +4673,13 @@
         <v>513963</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4694,13 @@
         <v>737918</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H17" s="7">
         <v>659</v>
@@ -4703,13 +4709,13 @@
         <v>729465</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M17" s="7">
         <v>1394</v>
@@ -4718,13 +4724,13 @@
         <v>1467383</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4798,13 @@
         <v>808668</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>317</v>
       </c>
       <c r="H19" s="7">
         <v>1149</v>
@@ -4807,13 +4813,13 @@
         <v>1178484</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>204</v>
+        <v>319</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M19" s="7">
         <v>1913</v>
@@ -4822,13 +4828,13 @@
         <v>1987152</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>321</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4849,13 @@
         <v>2585682</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>87</v>
+        <v>273</v>
       </c>
       <c r="H20" s="7">
         <v>2189</v>
@@ -4864,7 +4870,7 @@
         <v>327</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>214</v>
+        <v>328</v>
       </c>
       <c r="M20" s="7">
         <v>4656</v>
@@ -4873,13 +4879,13 @@
         <v>4951740</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>144</v>
+        <v>329</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,7 +4941,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4956,7 +4962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651D9253-5CE7-4B6E-9E92-20FCBEF29921}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85760A1A-E2BC-48B4-81E1-563D758BA3D8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4973,7 +4979,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5080,13 +5086,13 @@
         <v>7062</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>34</v>
@@ -5095,13 +5101,13 @@
         <v>16843</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>43</v>
@@ -5110,13 +5116,13 @@
         <v>23905</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,13 +5137,13 @@
         <v>94920</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>209</v>
@@ -5146,13 +5152,13 @@
         <v>113890</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>318</v>
@@ -5161,13 +5167,13 @@
         <v>208810</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5241,13 @@
         <v>82269</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H7" s="7">
         <v>178</v>
@@ -5250,13 +5256,13 @@
         <v>110291</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M7" s="7">
         <v>269</v>
@@ -5265,13 +5271,13 @@
         <v>192560</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5292,13 @@
         <v>467554</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>820</v>
@@ -5301,13 +5307,13 @@
         <v>509676</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>1341</v>
@@ -5316,13 +5322,13 @@
         <v>977230</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,13 +5396,13 @@
         <v>160272</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H10" s="7">
         <v>349</v>
@@ -5405,13 +5411,13 @@
         <v>251455</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M10" s="7">
         <v>513</v>
@@ -5420,13 +5426,13 @@
         <v>411727</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,13 +5447,13 @@
         <v>878976</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H11" s="7">
         <v>1168</v>
@@ -5456,13 +5462,13 @@
         <v>808624</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M11" s="7">
         <v>1968</v>
@@ -5471,13 +5477,13 @@
         <v>1687600</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,7 +5539,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5545,13 +5551,13 @@
         <v>92362</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H13" s="7">
         <v>174</v>
@@ -5560,13 +5566,13 @@
         <v>241281</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M13" s="7">
         <v>258</v>
@@ -5575,13 +5581,13 @@
         <v>333643</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5596,13 +5602,13 @@
         <v>636410</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H14" s="7">
         <v>873</v>
@@ -5611,13 +5617,13 @@
         <v>633090</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>1465</v>
@@ -5626,13 +5632,13 @@
         <v>1269499</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,7 +5694,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5700,13 +5706,13 @@
         <v>113446</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>233</v>
@@ -5715,13 +5721,13 @@
         <v>162681</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>361</v>
@@ -5730,13 +5736,13 @@
         <v>276127</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,13 +5757,13 @@
         <v>851957</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H17" s="7">
         <v>1329</v>
@@ -5766,13 +5772,13 @@
         <v>987751</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="M17" s="7">
         <v>2207</v>
@@ -5781,13 +5787,13 @@
         <v>1839708</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5861,13 @@
         <v>455411</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H19" s="7">
         <v>968</v>
@@ -5870,13 +5876,13 @@
         <v>782550</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M19" s="7">
         <v>1444</v>
@@ -5885,13 +5891,13 @@
         <v>1237961</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,13 +5912,13 @@
         <v>2929817</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H20" s="7">
         <v>4399</v>
@@ -5921,13 +5927,13 @@
         <v>3053031</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>7299</v>
@@ -5936,13 +5942,13 @@
         <v>5982847</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5998,7 +6004,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2C_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF2EB336-87EA-48A7-BABE-2375B91994E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4D6D898-59CE-4B47-875C-C044355DD790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{934D790B-D93E-4114-8805-DF097BA8E494}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CFF0371D-CCDE-4BA9-BD4F-B591FD347511}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="441">
-  <si>
-    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
+  <si>
+    <t>Hogares según si tienen al menos un miembro que requiere cuidados habituales por la persona entrevistada en 2007 (Tasa respuesta: 63,28%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,64 +71,64 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
+    <t>SÍ</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1231 +137,1219 @@
     <t>2-10.000 hab</t>
   </si>
   <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
   </si>
   <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
+    <t>Hogares según si tienen al menos un miembro que requiere cuidados habituales por la persona entrevistada en 2012 (Tasa respuesta: 66,65%)</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen al menos un miembro que requiere cuidados habituales por la persona entrevistada en 2016 (Tasa respuesta: 61,24%)</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
   </si>
   <si>
     <t>42,0%</t>
   </si>
   <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
   </si>
   <si>
     <t>58,0%</t>
   </si>
   <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen al menos un miembro que requiere cuidados habituales por la persona entrevistada en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
   </si>
   <si>
     <t>12,06%</t>
   </si>
   <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
   </si>
   <si>
     <t>87,94%</t>
   </si>
   <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E6CA80-3890-4665-90D9-FA05F597E79E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079C31DB-4B5C-4C08-AD51-B39A098813FB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1891,10 +1879,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>15705</v>
+        <v>16721</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1906,10 +1894,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I4" s="7">
-        <v>28130</v>
+        <v>29944</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1921,10 +1909,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N4" s="7">
-        <v>43835</v>
+        <v>46665</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1942,10 +1930,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="D5" s="7">
-        <v>99653</v>
+        <v>61686</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1957,10 +1945,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="I5" s="7">
-        <v>84625</v>
+        <v>46212</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1972,10 +1960,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>187</v>
+        <v>109</v>
       </c>
       <c r="N5" s="7">
-        <v>184278</v>
+        <v>107899</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1993,10 +1981,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>78407</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2008,10 +1996,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>76156</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2023,10 +2011,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>158</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>154564</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2046,10 +2034,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D7" s="7">
-        <v>124233</v>
+        <v>135660</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2061,10 +2049,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="I7" s="7">
-        <v>193661</v>
+        <v>199722</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2076,10 +2064,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="N7" s="7">
-        <v>317894</v>
+        <v>335381</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2097,10 +2085,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>456</v>
+        <v>214</v>
       </c>
       <c r="D8" s="7">
-        <v>454421</v>
+        <v>209036</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2112,10 +2100,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>384</v>
+        <v>214</v>
       </c>
       <c r="I8" s="7">
-        <v>381935</v>
+        <v>216156</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2127,10 +2115,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>840</v>
+        <v>428</v>
       </c>
       <c r="N8" s="7">
-        <v>836356</v>
+        <v>425193</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2148,10 +2136,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>346</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>344696</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2163,10 +2151,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>404</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>415878</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2178,10 +2166,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>750</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>760574</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2201,10 +2189,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D10" s="7">
-        <v>210600</v>
+        <v>221059</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2216,10 +2204,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="I10" s="7">
-        <v>312365</v>
+        <v>316600</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2231,19 +2219,19 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="N10" s="7">
-        <v>522965</v>
+        <v>537659</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2252,49 +2240,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>704</v>
+        <v>351</v>
       </c>
       <c r="D11" s="7">
-        <v>751200</v>
+        <v>365450</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>616</v>
+        <v>313</v>
       </c>
       <c r="I11" s="7">
-        <v>656028</v>
+        <v>333562</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1320</v>
+        <v>664</v>
       </c>
       <c r="N11" s="7">
-        <v>1407228</v>
+        <v>699012</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2303,10 +2291,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>553</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>586509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2318,10 +2306,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>609</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>650162</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2333,10 +2321,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1162</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1236671</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2350,55 +2338,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D13" s="7">
-        <v>133115</v>
+        <v>145656</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="I13" s="7">
-        <v>200932</v>
+        <v>207734</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="N13" s="7">
-        <v>334047</v>
+        <v>353391</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,49 +2395,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>515</v>
+        <v>247</v>
       </c>
       <c r="D14" s="7">
-        <v>545394</v>
+        <v>257725</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>498</v>
+        <v>277</v>
       </c>
       <c r="I14" s="7">
-        <v>482909</v>
+        <v>268371</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1013</v>
+        <v>524</v>
       </c>
       <c r="N14" s="7">
-        <v>1028303</v>
+        <v>526095</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2458,10 +2446,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>384</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>403381</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2473,10 +2461,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>482</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>476105</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2488,10 +2476,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>866</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>879486</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2505,55 +2493,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D16" s="7">
-        <v>177414</v>
+        <v>186908</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="I16" s="7">
-        <v>290722</v>
+        <v>304699</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="N16" s="7">
-        <v>468136</v>
+        <v>491606</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2562,28 +2550,28 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>811</v>
+        <v>337</v>
       </c>
       <c r="D17" s="7">
-        <v>764808</v>
+        <v>310324</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>718</v>
+        <v>361</v>
       </c>
       <c r="I17" s="7">
-        <v>747890</v>
+        <v>378363</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>100</v>
@@ -2592,10 +2580,10 @@
         <v>101</v>
       </c>
       <c r="M17" s="7">
-        <v>1529</v>
+        <v>698</v>
       </c>
       <c r="N17" s="7">
-        <v>1512698</v>
+        <v>688688</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>102</v>
@@ -2613,10 +2601,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>530</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>497232</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2628,10 +2616,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>654</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>683062</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2643,10 +2631,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>1184</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>1180294</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2666,49 +2654,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>637</v>
+        <v>679</v>
       </c>
       <c r="D19" s="7">
-        <v>661067</v>
+        <v>706004</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
-        <v>985</v>
+        <v>1018</v>
       </c>
       <c r="I19" s="7">
-        <v>1025811</v>
+        <v>1058698</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
-        <v>1622</v>
+        <v>1697</v>
       </c>
       <c r="N19" s="7">
-        <v>1686877</v>
+        <v>1764702</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2717,49 +2705,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>2577</v>
+        <v>1206</v>
       </c>
       <c r="D20" s="7">
-        <v>2615476</v>
+        <v>1204222</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
-        <v>2312</v>
+        <v>1217</v>
       </c>
       <c r="I20" s="7">
-        <v>2353387</v>
+        <v>1242664</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
-        <v>4889</v>
+        <v>2423</v>
       </c>
       <c r="N20" s="7">
-        <v>4968864</v>
+        <v>2446886</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,10 +2756,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>3214</v>
+        <v>1885</v>
       </c>
       <c r="D21" s="7">
-        <v>3276543</v>
+        <v>1910226</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2783,10 +2771,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>3297</v>
+        <v>2235</v>
       </c>
       <c r="I21" s="7">
-        <v>3379198</v>
+        <v>2301362</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2798,10 +2786,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>6511</v>
+        <v>4120</v>
       </c>
       <c r="N21" s="7">
-        <v>6655741</v>
+        <v>4211588</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2815,7 +2803,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2836,7 +2824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4C9F36-D7A0-4D75-8072-6263138B0B65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB6C9F3-E78A-42B0-8CAA-2AFA5A63C674}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2853,7 +2841,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2954,19 +2942,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="7">
-        <v>31100</v>
+        <v>31913</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -2975,28 +2963,28 @@
         <v>48616</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N4" s="7">
-        <v>79716</v>
+        <v>80528</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,49 +2993,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="D5" s="7">
-        <v>84665</v>
+        <v>45486</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I5" s="7">
-        <v>63289</v>
+        <v>35485</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="N5" s="7">
-        <v>147954</v>
+        <v>80972</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,10 +3044,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>77399</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3071,10 +3059,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>84101</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3086,10 +3074,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>161500</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3109,49 +3097,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D7" s="7">
-        <v>172548</v>
+        <v>183664</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="H7" s="7">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I7" s="7">
-        <v>251830</v>
+        <v>254822</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M7" s="7">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="N7" s="7">
-        <v>424377</v>
+        <v>438486</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,49 +3148,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>392</v>
+        <v>195</v>
       </c>
       <c r="D8" s="7">
-        <v>415156</v>
+        <v>211449</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
-        <v>312</v>
+        <v>167</v>
       </c>
       <c r="I8" s="7">
-        <v>333315</v>
+        <v>175685</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
-        <v>704</v>
+        <v>362</v>
       </c>
       <c r="N8" s="7">
-        <v>748472</v>
+        <v>387134</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,10 +3199,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>366</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>395113</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3226,10 +3214,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>409</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>430507</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3241,10 +3229,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>775</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>825620</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3264,49 +3252,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="D10" s="7">
-        <v>311130</v>
+        <v>325474</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="I10" s="7">
-        <v>460866</v>
+        <v>465821</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
-        <v>707</v>
+        <v>725</v>
       </c>
       <c r="N10" s="7">
-        <v>771996</v>
+        <v>791295</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,49 +3303,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>646</v>
+        <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>706817</v>
+        <v>336065</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
-        <v>523</v>
+        <v>259</v>
       </c>
       <c r="I11" s="7">
-        <v>571318</v>
+        <v>281029</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
-        <v>1169</v>
+        <v>561</v>
       </c>
       <c r="N11" s="7">
-        <v>1278135</v>
+        <v>617094</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,10 +3354,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>605</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>661539</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3381,10 +3369,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>681</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>746850</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3396,10 +3384,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1286</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1408389</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3413,52 +3401,52 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="D13" s="7">
-        <v>222791</v>
+        <v>236276</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="I13" s="7">
-        <v>354661</v>
+        <v>357753</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M13" s="7">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="N13" s="7">
-        <v>577452</v>
+        <v>594029</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>183</v>
@@ -3470,49 +3458,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>483</v>
+        <v>201</v>
       </c>
       <c r="D14" s="7">
-        <v>534832</v>
+        <v>220953</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>159</v>
+      </c>
+      <c r="I14" s="7">
+        <v>173968</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="H14" s="7">
-        <v>380</v>
-      </c>
-      <c r="I14" s="7">
-        <v>422513</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>360</v>
+      </c>
+      <c r="N14" s="7">
+        <v>394921</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="M14" s="7">
-        <v>863</v>
-      </c>
-      <c r="N14" s="7">
-        <v>957345</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,10 +3509,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>419</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>457229</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3536,10 +3524,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>487</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>531721</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3551,10 +3539,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>906</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>988950</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3568,55 +3556,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="D16" s="7">
-        <v>264630</v>
+        <v>277916</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>406</v>
+      </c>
+      <c r="I16" s="7">
+        <v>423011</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="H16" s="7">
-        <v>394</v>
-      </c>
-      <c r="I16" s="7">
-        <v>410963</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>676</v>
+      </c>
+      <c r="N16" s="7">
+        <v>700927</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="M16" s="7">
-        <v>651</v>
-      </c>
-      <c r="N16" s="7">
-        <v>675593</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,49 +3613,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>653</v>
+        <v>254</v>
       </c>
       <c r="D17" s="7">
-        <v>683109</v>
+        <v>268130</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>287</v>
+      </c>
+      <c r="I17" s="7">
+        <v>300641</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="H17" s="7">
-        <v>609</v>
-      </c>
-      <c r="I17" s="7">
-        <v>640938</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>541</v>
+      </c>
+      <c r="N17" s="7">
+        <v>568771</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="M17" s="7">
-        <v>1262</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1324047</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,10 +3664,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>524</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>546046</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3691,10 +3679,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>693</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>723652</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3706,10 +3694,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>1217</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>1269698</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3729,49 +3717,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>947</v>
+        <v>997</v>
       </c>
       <c r="D19" s="7">
-        <v>1002198</v>
+        <v>1055242</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>1439</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1550023</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="H19" s="7">
-        <v>1416</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1526936</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M19" s="7">
+        <v>2436</v>
+      </c>
+      <c r="N19" s="7">
+        <v>2605265</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2363</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2529134</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,49 +3768,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>2262</v>
+        <v>997</v>
       </c>
       <c r="D20" s="7">
-        <v>2424581</v>
+        <v>1082084</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H20" s="7">
+        <v>904</v>
+      </c>
+      <c r="I20" s="7">
+        <v>966807</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1901</v>
+      </c>
+      <c r="N20" s="7">
+        <v>2048891</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="H20" s="7">
-        <v>1882</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2031373</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4144</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4455954</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,10 +3819,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>3209</v>
+        <v>1994</v>
       </c>
       <c r="D21" s="7">
-        <v>3426779</v>
+        <v>2137326</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3846,10 +3834,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>3298</v>
+        <v>2343</v>
       </c>
       <c r="I21" s="7">
-        <v>3558309</v>
+        <v>2516830</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3861,10 +3849,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>6507</v>
+        <v>4337</v>
       </c>
       <c r="N21" s="7">
-        <v>6985088</v>
+        <v>4654156</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3878,7 +3866,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3899,7 +3887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DE3623-CDD9-48A9-B387-CEDEEC77FBB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49077B9-E872-446F-AABD-F2AF06E4C74A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3916,7 +3904,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4023,13 +4011,13 @@
         <v>22381</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -4038,13 +4026,13 @@
         <v>36831</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>53</v>
+        <v>230</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>41</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -4053,13 +4041,13 @@
         <v>59213</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,49 +4056,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="D5" s="7">
-        <v>94165</v>
+        <v>37647</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H5" s="7">
+        <v>36</v>
+      </c>
+      <c r="I5" s="7">
+        <v>36548</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="H5" s="7">
-        <v>77</v>
-      </c>
-      <c r="I5" s="7">
-        <v>76529</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>76</v>
+      </c>
+      <c r="N5" s="7">
+        <v>74194</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M5" s="7">
-        <v>168</v>
-      </c>
-      <c r="N5" s="7">
-        <v>170693</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,10 +4107,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>60028</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4134,10 +4122,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>73379</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4149,10 +4137,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>133407</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4172,19 +4160,19 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D7" s="7">
-        <v>151276</v>
+        <v>157863</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H7" s="7">
         <v>170</v>
@@ -4193,28 +4181,28 @@
         <v>167917</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M7" s="7">
+        <v>317</v>
+      </c>
+      <c r="N7" s="7">
+        <v>325780</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="M7" s="7">
-        <v>311</v>
-      </c>
-      <c r="N7" s="7">
-        <v>319192</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,49 +4211,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>398</v>
+        <v>185</v>
       </c>
       <c r="D8" s="7">
-        <v>406978</v>
+        <v>180070</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H8" s="7">
+        <v>192</v>
+      </c>
+      <c r="I8" s="7">
+        <v>205172</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>377</v>
+      </c>
+      <c r="N8" s="7">
+        <v>385242</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="H8" s="7">
-        <v>381</v>
-      </c>
-      <c r="I8" s="7">
-        <v>391562</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="M8" s="7">
-        <v>779</v>
-      </c>
-      <c r="N8" s="7">
-        <v>798541</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,10 +4262,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>332</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>337933</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4289,10 +4277,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>362</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>373089</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4304,10 +4292,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>694</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>711022</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4327,49 +4315,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="D10" s="7">
-        <v>254160</v>
+        <v>265854</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H10" s="7">
+        <v>384</v>
+      </c>
+      <c r="I10" s="7">
+        <v>395350</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>631</v>
+      </c>
+      <c r="N10" s="7">
+        <v>661204</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="H10" s="7">
-        <v>373</v>
-      </c>
-      <c r="I10" s="7">
-        <v>383625</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="M10" s="7">
-        <v>608</v>
-      </c>
-      <c r="N10" s="7">
-        <v>637784</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,49 +4366,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>716</v>
+        <v>304</v>
       </c>
       <c r="D11" s="7">
-        <v>768271</v>
+        <v>316479</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H11" s="7">
+        <v>286</v>
+      </c>
+      <c r="I11" s="7">
+        <v>321664</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>590</v>
+      </c>
+      <c r="N11" s="7">
+        <v>638143</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="H11" s="7">
-        <v>604</v>
-      </c>
-      <c r="I11" s="7">
-        <v>659288</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1320</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1427560</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,10 +4417,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>551</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>582333</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4444,10 +4432,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>670</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>717014</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4459,10 +4447,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1221</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1299347</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4476,55 +4464,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D13" s="7">
-        <v>181202</v>
+        <v>190611</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H13" s="7">
+        <v>272</v>
+      </c>
+      <c r="I13" s="7">
+        <v>280589</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>450</v>
+      </c>
+      <c r="N13" s="7">
+        <v>471200</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="H13" s="7">
-        <v>268</v>
-      </c>
-      <c r="I13" s="7">
-        <v>275798</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="M13" s="7">
-        <v>437</v>
-      </c>
-      <c r="N13" s="7">
-        <v>457000</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,49 +4521,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>527</v>
+        <v>211</v>
       </c>
       <c r="D14" s="7">
-        <v>578350</v>
+        <v>225546</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H14" s="7">
+        <v>204</v>
+      </c>
+      <c r="I14" s="7">
+        <v>232725</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>415</v>
+      </c>
+      <c r="N14" s="7">
+        <v>458271</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="H14" s="7">
-        <v>468</v>
-      </c>
-      <c r="I14" s="7">
-        <v>509213</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="M14" s="7">
-        <v>995</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1087563</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,10 +4572,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>389</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>416157</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4599,10 +4587,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>476</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>513314</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4614,10 +4602,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>865</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>929471</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4631,55 +4619,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D16" s="7">
-        <v>199649</v>
+        <v>201701</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H16" s="7">
+        <v>302</v>
+      </c>
+      <c r="I16" s="7">
+        <v>316287</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>501</v>
+      </c>
+      <c r="N16" s="7">
+        <v>517988</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="H16" s="7">
-        <v>300</v>
-      </c>
-      <c r="I16" s="7">
-        <v>314314</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="M16" s="7">
-        <v>497</v>
-      </c>
-      <c r="N16" s="7">
-        <v>513963</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,49 +4676,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>735</v>
+        <v>309</v>
       </c>
       <c r="D17" s="7">
-        <v>737918</v>
+        <v>298776</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H17" s="7">
+        <v>297</v>
+      </c>
+      <c r="I17" s="7">
+        <v>341937</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>606</v>
+      </c>
+      <c r="N17" s="7">
+        <v>640713</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="P17" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="H17" s="7">
-        <v>659</v>
-      </c>
-      <c r="I17" s="7">
-        <v>729465</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1394</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1467383</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,10 +4727,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>508</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>500477</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4754,10 +4742,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>599</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>658224</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4769,10 +4757,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>1107</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>1158701</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4792,49 +4780,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>764</v>
+        <v>793</v>
       </c>
       <c r="D19" s="7">
-        <v>808668</v>
+        <v>838411</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1166</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1196973</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1959</v>
+      </c>
+      <c r="N19" s="7">
+        <v>2035384</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="H19" s="7">
-        <v>1149</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1178484</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1913</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1987152</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,49 +4831,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>2467</v>
+        <v>1049</v>
       </c>
       <c r="D20" s="7">
-        <v>2585682</v>
+        <v>1058517</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1015</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1138047</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>2064</v>
+      </c>
+      <c r="N20" s="7">
+        <v>2196564</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2189</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2366058</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4656</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4951740</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4894,10 +4882,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>3231</v>
+        <v>1842</v>
       </c>
       <c r="D21" s="7">
-        <v>3394350</v>
+        <v>1896928</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4909,10 +4897,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>3338</v>
+        <v>2181</v>
       </c>
       <c r="I21" s="7">
-        <v>3544542</v>
+        <v>2335020</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4924,10 +4912,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>6569</v>
+        <v>4023</v>
       </c>
       <c r="N21" s="7">
-        <v>6938892</v>
+        <v>4231948</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4941,7 +4929,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4962,7 +4950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85760A1A-E2BC-48B4-81E1-563D758BA3D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD69B99-EEC4-4D5F-AFF8-BC725A20070D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4979,7 +4967,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5080,49 +5068,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>7062</v>
+        <v>4965</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H4" s="7">
+        <v>14</v>
+      </c>
+      <c r="I4" s="7">
+        <v>9105</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>19</v>
+      </c>
+      <c r="N4" s="7">
+        <v>14070</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="H4" s="7">
-        <v>34</v>
-      </c>
-      <c r="I4" s="7">
-        <v>16843</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="M4" s="7">
-        <v>43</v>
-      </c>
-      <c r="N4" s="7">
-        <v>23905</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,49 +5119,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D5" s="7">
-        <v>94920</v>
+        <v>97017</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H5" s="7">
+        <v>229</v>
+      </c>
+      <c r="I5" s="7">
+        <v>121628</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>342</v>
+      </c>
+      <c r="N5" s="7">
+        <v>218645</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="H5" s="7">
-        <v>209</v>
-      </c>
-      <c r="I5" s="7">
-        <v>113890</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="M5" s="7">
-        <v>318</v>
-      </c>
-      <c r="N5" s="7">
-        <v>208810</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,49 +5223,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="D7" s="7">
-        <v>82269</v>
+        <v>53953</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H7" s="7">
+        <v>106</v>
+      </c>
+      <c r="I7" s="7">
+        <v>77839</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>159</v>
+      </c>
+      <c r="N7" s="7">
+        <v>131792</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="H7" s="7">
-        <v>178</v>
-      </c>
-      <c r="I7" s="7">
-        <v>110291</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="M7" s="7">
-        <v>269</v>
-      </c>
-      <c r="N7" s="7">
-        <v>192560</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,49 +5274,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>521</v>
+        <v>559</v>
       </c>
       <c r="D8" s="7">
-        <v>467554</v>
+        <v>495870</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H8" s="7">
+        <v>892</v>
+      </c>
+      <c r="I8" s="7">
+        <v>542128</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>1451</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1037998</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="H8" s="7">
-        <v>820</v>
-      </c>
-      <c r="I8" s="7">
-        <v>509676</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1341</v>
-      </c>
-      <c r="N8" s="7">
-        <v>977230</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,49 +5378,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="D10" s="7">
-        <v>160272</v>
+        <v>110500</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H10" s="7">
+        <v>238</v>
+      </c>
+      <c r="I10" s="7">
+        <v>184845</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>347</v>
+      </c>
+      <c r="N10" s="7">
+        <v>295344</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="H10" s="7">
-        <v>349</v>
-      </c>
-      <c r="I10" s="7">
-        <v>251455</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="M10" s="7">
-        <v>513</v>
-      </c>
-      <c r="N10" s="7">
-        <v>411727</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,49 +5429,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>800</v>
+        <v>855</v>
       </c>
       <c r="D11" s="7">
-        <v>878976</v>
+        <v>928748</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1279</v>
+      </c>
+      <c r="I11" s="7">
+        <v>875234</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>2134</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1803983</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="H11" s="7">
-        <v>1168</v>
-      </c>
-      <c r="I11" s="7">
-        <v>808624</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1968</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1687600</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,55 +5527,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="D13" s="7">
-        <v>92362</v>
+        <v>48535</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H13" s="7">
+        <v>115</v>
+      </c>
+      <c r="I13" s="7">
+        <v>200434</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>159</v>
+      </c>
+      <c r="N13" s="7">
+        <v>248969</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="H13" s="7">
-        <v>174</v>
-      </c>
-      <c r="I13" s="7">
-        <v>241281</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="M13" s="7">
-        <v>258</v>
-      </c>
-      <c r="N13" s="7">
-        <v>333643</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5596,49 +5584,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>592</v>
+        <v>632</v>
       </c>
       <c r="D14" s="7">
-        <v>636410</v>
+        <v>680237</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H14" s="7">
+        <v>932</v>
+      </c>
+      <c r="I14" s="7">
+        <v>673937</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1564</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1354173</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="H14" s="7">
-        <v>873</v>
-      </c>
-      <c r="I14" s="7">
-        <v>633090</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1465</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1269499</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,55 +5682,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="D16" s="7">
-        <v>113446</v>
+        <v>74762</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H16" s="7">
+        <v>153</v>
+      </c>
+      <c r="I16" s="7">
+        <v>105595</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>233</v>
+      </c>
+      <c r="N16" s="7">
+        <v>180357</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="H16" s="7">
-        <v>233</v>
-      </c>
-      <c r="I16" s="7">
-        <v>162681</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="M16" s="7">
-        <v>361</v>
-      </c>
-      <c r="N16" s="7">
-        <v>276127</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,49 +5739,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>878</v>
+        <v>926</v>
       </c>
       <c r="D17" s="7">
-        <v>851957</v>
+        <v>890641</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1409</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1044837</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>2335</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1935478</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="H17" s="7">
-        <v>1329</v>
-      </c>
-      <c r="I17" s="7">
-        <v>987751</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2207</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1839708</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,49 +5843,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>476</v>
+        <v>291</v>
       </c>
       <c r="D19" s="7">
-        <v>455411</v>
+        <v>292715</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="H19" s="7">
+        <v>626</v>
+      </c>
+      <c r="I19" s="7">
+        <v>577818</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>917</v>
+      </c>
+      <c r="N19" s="7">
+        <v>870533</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="H19" s="7">
-        <v>968</v>
-      </c>
-      <c r="I19" s="7">
-        <v>782550</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1444</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1237961</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,49 +5894,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>2900</v>
+        <v>3085</v>
       </c>
       <c r="D20" s="7">
-        <v>2929817</v>
+        <v>3092513</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H20" s="7">
+        <v>4741</v>
+      </c>
+      <c r="I20" s="7">
+        <v>3257763</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>7826</v>
+      </c>
+      <c r="N20" s="7">
+        <v>6350276</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="H20" s="7">
-        <v>4399</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3053031</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7299</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5982847</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,7 +5978,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6004,7 +5992,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2C_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4D6D898-59CE-4B47-875C-C044355DD790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EDFEDB4-52FE-4A1E-A5C3-47DC33B0077D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CFF0371D-CCDE-4BA9-BD4F-B591FD347511}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FC75A649-E283-469A-AE31-9C0CA3DD3CDF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="362">
   <si>
     <t>Hogares según si tienen al menos un miembro que requiere cuidados habituales por la persona entrevistada en 2007 (Tasa respuesta: 63,28%)</t>
   </si>
@@ -68,279 +68,222 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
-  </si>
-  <si>
-    <t>SÍ</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>&lt;10.000 hab</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
   </si>
   <si>
     <t>44,61%</t>
   </si>
   <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
   </si>
   <si>
     <t>55,39%</t>
   </si>
   <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
     <t>51,67%</t>
   </si>
   <si>
@@ -416,294 +359,252 @@
     <t>Hogares según si tienen al menos un miembro que requiere cuidados habituales por la persona entrevistada en 2012 (Tasa respuesta: 66,65%)</t>
   </si>
   <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
   </si>
   <si>
     <t>63,54%</t>
   </si>
   <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
   </si>
   <si>
     <t>36,46%</t>
   </si>
   <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
     <t>40,33%</t>
   </si>
   <si>
@@ -719,100 +620,46 @@
     <t>Hogares según si tienen al menos un miembro que requiere cuidados habituales por la persona entrevistada en 2016 (Tasa respuesta: 61,24%)</t>
   </si>
   <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
   </si>
   <si>
     <t>45,65%</t>
@@ -827,9 +674,6 @@
     <t>55,14%</t>
   </si>
   <si>
-    <t>51,11%</t>
-  </si>
-  <si>
     <t>58,87%</t>
   </si>
   <si>
@@ -857,9 +701,6 @@
     <t>41,13%</t>
   </si>
   <si>
-    <t>48,89%</t>
-  </si>
-  <si>
     <t>49,11%</t>
   </si>
   <si>
@@ -893,9 +734,6 @@
     <t>47,17%</t>
   </si>
   <si>
-    <t>54,14%</t>
-  </si>
-  <si>
     <t>54,2%</t>
   </si>
   <si>
@@ -917,9 +755,6 @@
     <t>49,3%</t>
   </si>
   <si>
-    <t>45,86%</t>
-  </si>
-  <si>
     <t>52,83%</t>
   </si>
   <si>
@@ -1028,328 +863,268 @@
     <t>Hogares según si tienen al menos un miembro que requiere cuidados habituales por la persona entrevistada en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
   </si>
   <si>
     <t>10,11%</t>
   </si>
   <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
   </si>
   <si>
     <t>89,89%</t>
   </si>
   <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
   </si>
 </sst>
 </file>
@@ -1761,8 +1536,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079C31DB-4B5C-4C08-AD51-B39A098813FB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7AF8F2-5B1A-45DA-9CC6-26A4CF00773A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1879,10 +1654,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="D4" s="7">
-        <v>16721</v>
+        <v>152380</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1894,10 +1669,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>34</v>
+        <v>224</v>
       </c>
       <c r="I4" s="7">
-        <v>29944</v>
+        <v>229665</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1909,10 +1684,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>49</v>
+        <v>371</v>
       </c>
       <c r="N4" s="7">
-        <v>46665</v>
+        <v>382046</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1930,10 +1705,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>57</v>
+        <v>271</v>
       </c>
       <c r="D5" s="7">
-        <v>61686</v>
+        <v>270723</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1945,10 +1720,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>52</v>
+        <v>266</v>
       </c>
       <c r="I5" s="7">
-        <v>46212</v>
+        <v>262369</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1960,10 +1735,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>109</v>
+        <v>537</v>
       </c>
       <c r="N5" s="7">
-        <v>107899</v>
+        <v>533091</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1981,10 +1756,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>72</v>
+        <v>418</v>
       </c>
       <c r="D6" s="7">
-        <v>78407</v>
+        <v>423103</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1996,10 +1771,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>86</v>
+        <v>490</v>
       </c>
       <c r="I6" s="7">
-        <v>76156</v>
+        <v>492034</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2011,10 +1786,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>158</v>
+        <v>908</v>
       </c>
       <c r="N6" s="7">
-        <v>154564</v>
+        <v>915137</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2034,10 +1809,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="D7" s="7">
-        <v>135660</v>
+        <v>221059</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2049,10 +1824,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="I7" s="7">
-        <v>199722</v>
+        <v>316600</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2064,10 +1839,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>322</v>
+        <v>498</v>
       </c>
       <c r="N7" s="7">
-        <v>335381</v>
+        <v>537659</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2076,7 +1851,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,49 +1860,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>214</v>
+        <v>351</v>
       </c>
       <c r="D8" s="7">
-        <v>209036</v>
+        <v>365450</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>313</v>
+      </c>
+      <c r="I8" s="7">
+        <v>333562</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="7">
-        <v>214</v>
-      </c>
-      <c r="I8" s="7">
-        <v>216156</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>664</v>
+      </c>
+      <c r="N8" s="7">
+        <v>699012</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="7">
-        <v>428</v>
-      </c>
-      <c r="N8" s="7">
-        <v>425193</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2136,10 +1911,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>346</v>
+        <v>553</v>
       </c>
       <c r="D9" s="7">
-        <v>344696</v>
+        <v>586509</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2151,10 +1926,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>404</v>
+        <v>609</v>
       </c>
       <c r="I9" s="7">
-        <v>415878</v>
+        <v>650162</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2166,10 +1941,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>750</v>
+        <v>1162</v>
       </c>
       <c r="N9" s="7">
-        <v>760574</v>
+        <v>1236671</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2183,55 +1958,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="D10" s="7">
-        <v>221059</v>
+        <v>145656</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>205</v>
+      </c>
+      <c r="I10" s="7">
+        <v>207734</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>296</v>
-      </c>
-      <c r="I10" s="7">
-        <v>316600</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>342</v>
+      </c>
+      <c r="N10" s="7">
+        <v>353391</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>498</v>
-      </c>
-      <c r="N10" s="7">
-        <v>537659</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,49 +2015,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>351</v>
+        <v>247</v>
       </c>
       <c r="D11" s="7">
-        <v>365450</v>
+        <v>257725</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>277</v>
+      </c>
+      <c r="I11" s="7">
+        <v>268371</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>313</v>
-      </c>
-      <c r="I11" s="7">
-        <v>333562</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>524</v>
+      </c>
+      <c r="N11" s="7">
+        <v>526095</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>664</v>
-      </c>
-      <c r="N11" s="7">
-        <v>699012</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,10 +2066,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>553</v>
+        <v>384</v>
       </c>
       <c r="D12" s="7">
-        <v>586509</v>
+        <v>403381</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2306,10 +2081,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>609</v>
+        <v>482</v>
       </c>
       <c r="I12" s="7">
-        <v>650162</v>
+        <v>476105</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2321,10 +2096,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1162</v>
+        <v>866</v>
       </c>
       <c r="N12" s="7">
-        <v>1236671</v>
+        <v>879486</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2338,55 +2113,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="D13" s="7">
-        <v>145656</v>
+        <v>186908</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>293</v>
+      </c>
+      <c r="I13" s="7">
+        <v>304699</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>205</v>
-      </c>
-      <c r="I13" s="7">
-        <v>207734</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>486</v>
+      </c>
+      <c r="N13" s="7">
+        <v>491606</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>342</v>
-      </c>
-      <c r="N13" s="7">
-        <v>353391</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,49 +2170,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>247</v>
+        <v>337</v>
       </c>
       <c r="D14" s="7">
-        <v>257725</v>
+        <v>310324</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>361</v>
+      </c>
+      <c r="I14" s="7">
+        <v>378363</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>277</v>
-      </c>
-      <c r="I14" s="7">
-        <v>268371</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>698</v>
+      </c>
+      <c r="N14" s="7">
+        <v>688688</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>524</v>
-      </c>
-      <c r="N14" s="7">
-        <v>526095</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,10 +2221,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>384</v>
+        <v>530</v>
       </c>
       <c r="D15" s="7">
-        <v>403381</v>
+        <v>497232</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2461,10 +2236,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>482</v>
+        <v>654</v>
       </c>
       <c r="I15" s="7">
-        <v>476105</v>
+        <v>683062</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2476,10 +2251,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>866</v>
+        <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>879486</v>
+        <v>1180294</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2493,55 +2268,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>193</v>
+        <v>679</v>
       </c>
       <c r="D16" s="7">
-        <v>186908</v>
+        <v>706004</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1018</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1058698</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>293</v>
-      </c>
-      <c r="I16" s="7">
-        <v>304699</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1697</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1764702</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M16" s="7">
-        <v>486</v>
-      </c>
-      <c r="N16" s="7">
-        <v>491606</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,49 +2325,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>337</v>
+        <v>1206</v>
       </c>
       <c r="D17" s="7">
-        <v>310324</v>
+        <v>1204222</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>1217</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1242664</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="7">
-        <v>361</v>
-      </c>
-      <c r="I17" s="7">
-        <v>378363</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>2423</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2446886</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M17" s="7">
-        <v>698</v>
-      </c>
-      <c r="N17" s="7">
-        <v>688688</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,10 +2376,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>530</v>
+        <v>1885</v>
       </c>
       <c r="D18" s="7">
-        <v>497232</v>
+        <v>1910226</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2616,10 +2391,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>654</v>
+        <v>2235</v>
       </c>
       <c r="I18" s="7">
-        <v>683062</v>
+        <v>2301362</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2631,10 +2406,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1184</v>
+        <v>4120</v>
       </c>
       <c r="N18" s="7">
-        <v>1180294</v>
+        <v>4211588</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2647,171 +2422,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>679</v>
-      </c>
-      <c r="D19" s="7">
-        <v>706004</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1058698</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1697</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1764702</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1206</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1204222</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1217</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1242664</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2423</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2446886</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1885</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1910226</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2235</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2301362</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>4120</v>
-      </c>
-      <c r="N21" s="7">
-        <v>4211588</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2824,8 +2443,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB6C9F3-E78A-42B0-8CAA-2AFA5A63C674}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D1BBC9-D8B0-48A2-8AE9-7331E9A38375}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2841,7 +2460,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2942,49 +2561,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>35</v>
+        <v>206</v>
       </c>
       <c r="D4" s="7">
-        <v>31913</v>
+        <v>215576</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>41</v>
+        <v>283</v>
       </c>
       <c r="I4" s="7">
-        <v>48616</v>
+        <v>303437</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>76</v>
+        <v>489</v>
       </c>
       <c r="N4" s="7">
-        <v>80528</v>
+        <v>519013</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,49 +2612,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="D5" s="7">
-        <v>45486</v>
+        <v>256936</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>32</v>
+        <v>199</v>
       </c>
       <c r="I5" s="7">
-        <v>35485</v>
+        <v>211170</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>77</v>
+        <v>439</v>
       </c>
       <c r="N5" s="7">
-        <v>80972</v>
+        <v>468106</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,10 +2663,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>80</v>
+        <v>446</v>
       </c>
       <c r="D6" s="7">
-        <v>77399</v>
+        <v>472512</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3059,10 +2678,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>73</v>
+        <v>482</v>
       </c>
       <c r="I6" s="7">
-        <v>84101</v>
+        <v>514607</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3074,10 +2693,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>153</v>
+        <v>928</v>
       </c>
       <c r="N6" s="7">
-        <v>161500</v>
+        <v>987119</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3097,49 +2716,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>171</v>
+        <v>303</v>
       </c>
       <c r="D7" s="7">
-        <v>183664</v>
+        <v>325474</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>242</v>
+        <v>422</v>
       </c>
       <c r="I7" s="7">
-        <v>254822</v>
+        <v>465821</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>413</v>
+        <v>725</v>
       </c>
       <c r="N7" s="7">
-        <v>438486</v>
+        <v>791295</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,49 +2767,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>195</v>
+        <v>302</v>
       </c>
       <c r="D8" s="7">
-        <v>211449</v>
+        <v>336065</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>167</v>
+        <v>259</v>
       </c>
       <c r="I8" s="7">
-        <v>175685</v>
+        <v>281029</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>362</v>
+        <v>561</v>
       </c>
       <c r="N8" s="7">
-        <v>387134</v>
+        <v>617094</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,10 +2818,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>366</v>
+        <v>605</v>
       </c>
       <c r="D9" s="7">
-        <v>395113</v>
+        <v>661539</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3214,10 +2833,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>409</v>
+        <v>681</v>
       </c>
       <c r="I9" s="7">
-        <v>430507</v>
+        <v>746850</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3229,10 +2848,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>775</v>
+        <v>1286</v>
       </c>
       <c r="N9" s="7">
-        <v>825620</v>
+        <v>1408389</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3246,55 +2865,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="D10" s="7">
-        <v>325474</v>
+        <v>236276</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
-        <v>422</v>
+        <v>328</v>
       </c>
       <c r="I10" s="7">
-        <v>465821</v>
+        <v>357753</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="M10" s="7">
-        <v>725</v>
+        <v>546</v>
       </c>
       <c r="N10" s="7">
-        <v>791295</v>
+        <v>594029</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,49 +2922,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="D11" s="7">
-        <v>336065</v>
+        <v>220953</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="H11" s="7">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="I11" s="7">
-        <v>281029</v>
+        <v>173968</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="M11" s="7">
-        <v>561</v>
+        <v>360</v>
       </c>
       <c r="N11" s="7">
-        <v>617094</v>
+        <v>394921</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,10 +2973,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>605</v>
+        <v>419</v>
       </c>
       <c r="D12" s="7">
-        <v>661539</v>
+        <v>457229</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3369,10 +2988,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>681</v>
+        <v>487</v>
       </c>
       <c r="I12" s="7">
-        <v>746850</v>
+        <v>531721</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3384,10 +3003,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1286</v>
+        <v>906</v>
       </c>
       <c r="N12" s="7">
-        <v>1408389</v>
+        <v>988950</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3401,55 +3020,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="D13" s="7">
-        <v>236276</v>
+        <v>277916</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>328</v>
+        <v>406</v>
       </c>
       <c r="I13" s="7">
-        <v>357753</v>
+        <v>423011</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
-        <v>546</v>
+        <v>676</v>
       </c>
       <c r="N13" s="7">
-        <v>594029</v>
+        <v>700927</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,49 +3077,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="D14" s="7">
-        <v>220953</v>
+        <v>268130</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
-        <v>159</v>
+        <v>287</v>
       </c>
       <c r="I14" s="7">
-        <v>173968</v>
+        <v>300641</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
-        <v>360</v>
+        <v>541</v>
       </c>
       <c r="N14" s="7">
-        <v>394921</v>
+        <v>568771</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,10 +3128,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>419</v>
+        <v>524</v>
       </c>
       <c r="D15" s="7">
-        <v>457229</v>
+        <v>546046</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3524,10 +3143,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>487</v>
+        <v>693</v>
       </c>
       <c r="I15" s="7">
-        <v>531721</v>
+        <v>723652</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3539,10 +3158,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>906</v>
+        <v>1217</v>
       </c>
       <c r="N15" s="7">
-        <v>988950</v>
+        <v>1269698</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3556,55 +3175,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>270</v>
+        <v>997</v>
       </c>
       <c r="D16" s="7">
-        <v>277916</v>
+        <v>1055242</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
-        <v>406</v>
+        <v>1439</v>
       </c>
       <c r="I16" s="7">
-        <v>423011</v>
+        <v>1550023</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
-        <v>676</v>
+        <v>2436</v>
       </c>
       <c r="N16" s="7">
-        <v>700927</v>
+        <v>2605265</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,49 +3232,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>254</v>
+        <v>997</v>
       </c>
       <c r="D17" s="7">
-        <v>268130</v>
+        <v>1082084</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="H17" s="7">
-        <v>287</v>
+        <v>904</v>
       </c>
       <c r="I17" s="7">
-        <v>300641</v>
+        <v>966807</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="M17" s="7">
-        <v>541</v>
+        <v>1901</v>
       </c>
       <c r="N17" s="7">
-        <v>568771</v>
+        <v>2048891</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,10 +3283,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>524</v>
+        <v>1994</v>
       </c>
       <c r="D18" s="7">
-        <v>546046</v>
+        <v>2137326</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3679,10 +3298,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>693</v>
+        <v>2343</v>
       </c>
       <c r="I18" s="7">
-        <v>723652</v>
+        <v>2516830</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3694,10 +3313,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1217</v>
+        <v>4337</v>
       </c>
       <c r="N18" s="7">
-        <v>1269698</v>
+        <v>4654156</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3710,171 +3329,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>997</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1055242</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1439</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1550023</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2436</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2605265</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>997</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1082084</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H20" s="7">
-        <v>904</v>
-      </c>
-      <c r="I20" s="7">
-        <v>966807</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1901</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2048891</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1994</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2137326</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2343</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2516830</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>4337</v>
-      </c>
-      <c r="N21" s="7">
-        <v>4654156</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3887,8 +3350,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49077B9-E872-446F-AABD-F2AF06E4C74A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAED024-DB71-437C-932B-54AD55945131}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3904,7 +3367,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4005,49 +3468,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="D4" s="7">
-        <v>22381</v>
+        <v>180245</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>154</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="H4" s="7">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="I4" s="7">
-        <v>36831</v>
+        <v>204748</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="M4" s="7">
-        <v>60</v>
+        <v>377</v>
       </c>
       <c r="N4" s="7">
-        <v>59213</v>
+        <v>384992</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,49 +3519,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="D5" s="7">
-        <v>37647</v>
+        <v>217716</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>147</v>
       </c>
       <c r="H5" s="7">
-        <v>36</v>
+        <v>228</v>
       </c>
       <c r="I5" s="7">
-        <v>36548</v>
+        <v>241720</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="M5" s="7">
-        <v>76</v>
+        <v>453</v>
       </c>
       <c r="N5" s="7">
-        <v>74194</v>
+        <v>459437</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,10 +3570,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>62</v>
+        <v>394</v>
       </c>
       <c r="D6" s="7">
-        <v>60028</v>
+        <v>397961</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4122,10 +3585,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>74</v>
+        <v>436</v>
       </c>
       <c r="I6" s="7">
-        <v>73379</v>
+        <v>446468</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4137,10 +3600,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>136</v>
+        <v>830</v>
       </c>
       <c r="N6" s="7">
-        <v>133407</v>
+        <v>844429</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4160,49 +3623,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>147</v>
+        <v>247</v>
       </c>
       <c r="D7" s="7">
-        <v>157863</v>
+        <v>265854</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7">
-        <v>170</v>
+        <v>384</v>
       </c>
       <c r="I7" s="7">
-        <v>167917</v>
+        <v>395350</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>245</v>
+        <v>16</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="M7" s="7">
-        <v>317</v>
+        <v>631</v>
       </c>
       <c r="N7" s="7">
-        <v>325780</v>
+        <v>661204</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,49 +3674,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>185</v>
+        <v>304</v>
       </c>
       <c r="D8" s="7">
-        <v>180070</v>
+        <v>316479</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="H8" s="7">
-        <v>192</v>
+        <v>286</v>
       </c>
       <c r="I8" s="7">
-        <v>205172</v>
+        <v>321664</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>25</v>
       </c>
       <c r="M8" s="7">
-        <v>377</v>
+        <v>590</v>
       </c>
       <c r="N8" s="7">
-        <v>385242</v>
+        <v>638143</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,10 +3725,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>332</v>
+        <v>551</v>
       </c>
       <c r="D9" s="7">
-        <v>337933</v>
+        <v>582333</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4277,10 +3740,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>362</v>
+        <v>670</v>
       </c>
       <c r="I9" s="7">
-        <v>373089</v>
+        <v>717014</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4292,10 +3755,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>694</v>
+        <v>1221</v>
       </c>
       <c r="N9" s="7">
-        <v>711022</v>
+        <v>1299347</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4309,55 +3772,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>247</v>
+        <v>178</v>
       </c>
       <c r="D10" s="7">
-        <v>265854</v>
+        <v>190611</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="H10" s="7">
-        <v>384</v>
+        <v>272</v>
       </c>
       <c r="I10" s="7">
-        <v>395350</v>
+        <v>280589</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="M10" s="7">
-        <v>631</v>
+        <v>450</v>
       </c>
       <c r="N10" s="7">
-        <v>661204</v>
+        <v>471200</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,49 +3829,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>304</v>
+        <v>211</v>
       </c>
       <c r="D11" s="7">
-        <v>316479</v>
+        <v>225546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="H11" s="7">
-        <v>286</v>
+        <v>204</v>
       </c>
       <c r="I11" s="7">
-        <v>321664</v>
+        <v>232725</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="M11" s="7">
-        <v>590</v>
+        <v>415</v>
       </c>
       <c r="N11" s="7">
-        <v>638143</v>
+        <v>458271</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,10 +3880,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>551</v>
+        <v>389</v>
       </c>
       <c r="D12" s="7">
-        <v>582333</v>
+        <v>416157</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4432,10 +3895,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>670</v>
+        <v>476</v>
       </c>
       <c r="I12" s="7">
-        <v>717014</v>
+        <v>513314</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4447,10 +3910,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1221</v>
+        <v>865</v>
       </c>
       <c r="N12" s="7">
-        <v>1299347</v>
+        <v>929471</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4464,55 +3927,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="D13" s="7">
-        <v>190611</v>
+        <v>201701</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="H13" s="7">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="I13" s="7">
-        <v>280589</v>
+        <v>316287</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="M13" s="7">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="N13" s="7">
-        <v>471200</v>
+        <v>517988</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,49 +3984,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>211</v>
+        <v>309</v>
       </c>
       <c r="D14" s="7">
-        <v>225546</v>
+        <v>298776</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="H14" s="7">
-        <v>204</v>
+        <v>297</v>
       </c>
       <c r="I14" s="7">
-        <v>232725</v>
+        <v>341937</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="M14" s="7">
-        <v>415</v>
+        <v>606</v>
       </c>
       <c r="N14" s="7">
-        <v>458271</v>
+        <v>640713</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,10 +4035,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>389</v>
+        <v>508</v>
       </c>
       <c r="D15" s="7">
-        <v>416157</v>
+        <v>500477</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4587,10 +4050,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>476</v>
+        <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>513314</v>
+        <v>658224</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4602,10 +4065,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>865</v>
+        <v>1107</v>
       </c>
       <c r="N15" s="7">
-        <v>929471</v>
+        <v>1158701</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4619,55 +4082,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>199</v>
+        <v>793</v>
       </c>
       <c r="D16" s="7">
-        <v>201701</v>
+        <v>838411</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="H16" s="7">
-        <v>302</v>
+        <v>1166</v>
       </c>
       <c r="I16" s="7">
-        <v>316287</v>
+        <v>1196973</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="M16" s="7">
-        <v>501</v>
+        <v>1959</v>
       </c>
       <c r="N16" s="7">
-        <v>517988</v>
+        <v>2035384</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,49 +4139,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>309</v>
+        <v>1049</v>
       </c>
       <c r="D17" s="7">
-        <v>298776</v>
+        <v>1058517</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="H17" s="7">
-        <v>297</v>
+        <v>1015</v>
       </c>
       <c r="I17" s="7">
-        <v>341937</v>
+        <v>1138047</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="M17" s="7">
-        <v>606</v>
+        <v>2064</v>
       </c>
       <c r="N17" s="7">
-        <v>640713</v>
+        <v>2196564</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,10 +4190,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>508</v>
+        <v>1842</v>
       </c>
       <c r="D18" s="7">
-        <v>500477</v>
+        <v>1896928</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4742,10 +4205,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>599</v>
+        <v>2181</v>
       </c>
       <c r="I18" s="7">
-        <v>658224</v>
+        <v>2335020</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4757,10 +4220,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1107</v>
+        <v>4023</v>
       </c>
       <c r="N18" s="7">
-        <v>1158701</v>
+        <v>4231948</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4773,171 +4236,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>793</v>
-      </c>
-      <c r="D19" s="7">
-        <v>838411</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1166</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1196973</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1959</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2035384</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1049</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1058517</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1138047</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2064</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2196564</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1842</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1896928</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2181</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2335020</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>4023</v>
-      </c>
-      <c r="N21" s="7">
-        <v>4231948</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4950,8 +4257,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD69B99-EEC4-4D5F-AFF8-BC725A20070D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE0986E-A29B-410B-A2B4-8BCFC47EAE78}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4967,7 +4274,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5068,49 +4375,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="D4" s="7">
-        <v>4965</v>
+        <v>54926</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>274</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>276</v>
       </c>
       <c r="H4" s="7">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="I4" s="7">
-        <v>9105</v>
+        <v>78672</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="M4" s="7">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="N4" s="7">
-        <v>14070</v>
+        <v>133598</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>281</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,49 +4426,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>113</v>
+        <v>672</v>
       </c>
       <c r="D5" s="7">
-        <v>97017</v>
+        <v>580515</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="H5" s="7">
-        <v>229</v>
+        <v>1121</v>
       </c>
       <c r="I5" s="7">
-        <v>121628</v>
+        <v>646658</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>342</v>
+        <v>287</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="M5" s="7">
-        <v>342</v>
+        <v>1793</v>
       </c>
       <c r="N5" s="7">
-        <v>218645</v>
+        <v>1227174</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,10 +4477,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5185,10 +4492,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5200,10 +4507,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1971</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1360772</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5223,49 +4530,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="D7" s="7">
-        <v>53953</v>
+        <v>100174</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H7" s="7">
+        <v>238</v>
+      </c>
+      <c r="I7" s="7">
+        <v>161039</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="M7" s="7">
         <v>347</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="H7" s="7">
-        <v>106</v>
-      </c>
-      <c r="I7" s="7">
-        <v>77839</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="M7" s="7">
-        <v>159</v>
-      </c>
       <c r="N7" s="7">
-        <v>131792</v>
+        <v>261213</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>353</v>
+        <v>298</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>354</v>
+        <v>299</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>355</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,49 +4581,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>559</v>
+        <v>855</v>
       </c>
       <c r="D8" s="7">
-        <v>495870</v>
+        <v>1092690</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>356</v>
+        <v>301</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="H8" s="7">
-        <v>892</v>
+        <v>1279</v>
       </c>
       <c r="I8" s="7">
-        <v>542128</v>
+        <v>797612</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>360</v>
+        <v>305</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>361</v>
+        <v>306</v>
       </c>
       <c r="M8" s="7">
-        <v>1451</v>
+        <v>2134</v>
       </c>
       <c r="N8" s="7">
-        <v>1037998</v>
+        <v>1890303</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>362</v>
+        <v>307</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>364</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,10 +4632,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5340,10 +4647,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>998</v>
+        <v>1517</v>
       </c>
       <c r="I9" s="7">
-        <v>619967</v>
+        <v>958651</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5355,10 +4662,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1610</v>
+        <v>2481</v>
       </c>
       <c r="N9" s="7">
-        <v>1169790</v>
+        <v>2151516</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5372,55 +4679,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7">
-        <v>110500</v>
+        <v>44333</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>310</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>366</v>
+        <v>311</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="H10" s="7">
-        <v>238</v>
+        <v>115</v>
       </c>
       <c r="I10" s="7">
-        <v>184845</v>
+        <v>284333</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>368</v>
+        <v>313</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>369</v>
+        <v>314</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="M10" s="7">
-        <v>347</v>
+        <v>159</v>
       </c>
       <c r="N10" s="7">
-        <v>295344</v>
+        <v>328665</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>371</v>
+        <v>316</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>372</v>
+        <v>317</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>373</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,49 +4736,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>855</v>
+        <v>632</v>
       </c>
       <c r="D11" s="7">
-        <v>928748</v>
+        <v>660347</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>374</v>
+        <v>319</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>376</v>
+        <v>321</v>
       </c>
       <c r="H11" s="7">
-        <v>1279</v>
+        <v>932</v>
       </c>
       <c r="I11" s="7">
-        <v>875234</v>
+        <v>649033</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>377</v>
+        <v>322</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>378</v>
+        <v>323</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>379</v>
+        <v>324</v>
       </c>
       <c r="M11" s="7">
-        <v>2134</v>
+        <v>1564</v>
       </c>
       <c r="N11" s="7">
-        <v>1803983</v>
+        <v>1309381</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,10 +4787,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5495,10 +4802,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1517</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1060079</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5510,10 +4817,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2481</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2099327</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5527,55 +4834,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D13" s="7">
-        <v>48535</v>
+        <v>68083</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="H13" s="7">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="I13" s="7">
-        <v>200434</v>
+        <v>93131</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>386</v>
+        <v>278</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>387</v>
+        <v>331</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>388</v>
+        <v>332</v>
       </c>
       <c r="M13" s="7">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="N13" s="7">
-        <v>248969</v>
+        <v>161214</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>390</v>
+        <v>334</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>391</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,49 +4891,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>632</v>
+        <v>926</v>
       </c>
       <c r="D14" s="7">
-        <v>680237</v>
+        <v>858748</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>393</v>
+        <v>337</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>394</v>
+        <v>338</v>
       </c>
       <c r="H14" s="7">
-        <v>932</v>
+        <v>1409</v>
       </c>
       <c r="I14" s="7">
-        <v>673937</v>
+        <v>1001801</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>395</v>
+        <v>288</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="M14" s="7">
-        <v>1564</v>
+        <v>2335</v>
       </c>
       <c r="N14" s="7">
-        <v>1354173</v>
+        <v>1860549</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,10 +4942,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5650,10 +4957,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1562</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1094932</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5665,10 +4972,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2568</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2021763</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5682,55 +4989,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="D16" s="7">
-        <v>74762</v>
+        <v>267516</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="H16" s="7">
-        <v>153</v>
+        <v>626</v>
       </c>
       <c r="I16" s="7">
-        <v>105595</v>
+        <v>617174</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="M16" s="7">
-        <v>233</v>
+        <v>917</v>
       </c>
       <c r="N16" s="7">
-        <v>180357</v>
+        <v>884690</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>409</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,49 +5046,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>926</v>
+        <v>3085</v>
       </c>
       <c r="D17" s="7">
-        <v>890641</v>
+        <v>3192301</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>412</v>
+        <v>355</v>
       </c>
       <c r="H17" s="7">
-        <v>1409</v>
+        <v>4741</v>
       </c>
       <c r="I17" s="7">
-        <v>1044837</v>
+        <v>3095106</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>413</v>
+        <v>356</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>414</v>
+        <v>357</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>415</v>
+        <v>358</v>
       </c>
       <c r="M17" s="7">
-        <v>2335</v>
+        <v>7826</v>
       </c>
       <c r="N17" s="7">
-        <v>1935478</v>
+        <v>6287407</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>416</v>
+        <v>359</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>417</v>
+        <v>360</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,10 +5097,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5805,10 +5112,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1562</v>
+        <v>5367</v>
       </c>
       <c r="I18" s="7">
-        <v>1150432</v>
+        <v>3712280</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5820,10 +5127,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2568</v>
+        <v>8743</v>
       </c>
       <c r="N18" s="7">
-        <v>2115835</v>
+        <v>7172097</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5836,171 +5143,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>291</v>
-      </c>
-      <c r="D19" s="7">
-        <v>292715</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="H19" s="7">
-        <v>626</v>
-      </c>
-      <c r="I19" s="7">
-        <v>577818</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M19" s="7">
-        <v>917</v>
-      </c>
-      <c r="N19" s="7">
-        <v>870533</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3085</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3092513</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4741</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3257763</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7826</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6350276</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5367</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8743</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
